--- a/biology/Botanique/Parc_des_Vétérans/Parc_des_Vétérans.xlsx
+++ b/biology/Botanique/Parc_des_Vétérans/Parc_des_Vétérans.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Parc_des_V%C3%A9t%C3%A9rans</t>
+          <t>Parc_des_Vétérans</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Parc des vétérans est le nom du parc où se trouve le Monument aux morts de la ville de Shawinigan, province du Québec au (Canada) 
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Parc_des_V%C3%A9t%C3%A9rans</t>
+          <t>Parc_des_Vétérans</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">À la suite de la cérémonie organisée pour le retour des soldats de la Grande Guerre, en 1919, M. Ferdinand Daemen réclama que la ville érige un monument afin que l’on n’oublie pas les noms de ceux qui sont morts au champ d’honneur. Ses appels restaient sans écho, mais il ne se découragea pas. Il devint le secrétaire de l’Association des Anciens Combattants de Shawinigan. Ce n’est que lorsque la ville de Grand-Mère dévoila son Monument aux Morts, le 11 novembre 1937, que les autorités municipales se montrèrent enfin favorables à ce que Shawinigan ait son propre monument.  
 Puisque M. Daemen était d’origine belge, le comité demanda à Mme. la baronne Suzanne Silvercruys, femme-sculpteur de réputation internationale, elle aussi d’origine belge. Le 11 mai 1939, Mme. Silvercruys fut reçue à l’Hôtel de ville et le plan final pour le monument fut décidé. Elle donna gratuitement son temps et son travail pour le modèle du bronze, et ne demanda que le prix du coulage en Belgique, 1,500$.
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Parc_des_V%C3%A9t%C3%A9rans</t>
+          <t>Parc_des_Vétérans</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,7 +559,9 @@
           <t>Monument</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le monument en granit est l’œuvre de l’architecte J. Cuvelier de Trois-Rivières et est une adaptation de la stèle que les Grecs de l’Antiquité avaient coutume de consacrer à la mémoire de leurs défunts. Il a une hauteur de 35 pieds et est surmonté d’un casque de combat reposant sur la couronne de la victoire. Ornent le monument deux glaives surmontés de trois couronnes de laurier, situées sur le devant et à l’arrière. Ces ornements, ainsi que la plaque commémorative, ont été coulés à la maison Vandevoorde de Montréal. La plaque commémorative, en bronze, porte l’inscription suivante :
 Érigé par la Cité de Shawinigan Falls à la mémoire de ses chers fils, artisans de la Victoire
@@ -566,7 +582,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Parc_des_V%C3%A9t%C3%A9rans</t>
+          <t>Parc_des_Vétérans</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -584,7 +600,9 @@
           <t>La liste des disparus</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">C’est monsieur Daemen qui confectionna la liste de ceux qui ont perdu la vie durant la Première Guerre mondiale. Il est impossible de retrouver l’originale de cette liste et comprendre pourquoi certains noms n’ont pas été écrits. L’un de ces noms est celui du fils du premier maire de Shawinigan, monsieur Vivian Burrill. Le lance-caporal Vivian Luxmore Burrill est mort au combat en France le 4 juin 1917 à l’âge de 21 ans. Sa famille a fait poser une plaque dans la vieille église anglicane de Trois-Rivières.
 Aucune information n’est disponible sur plusieurs noms. La raison est que certains jeunes hommes qui se sont enrôlés étaient des immigrants qui, après avoir quitté famille et pays, sont venus travailler dans les usines de Shawinigan. Ils provenaient surtout d’Italie et de Belgique.
@@ -599,7 +617,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Parc_des_V%C3%A9t%C3%A9rans</t>
+          <t>Parc_des_Vétérans</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -617,7 +635,9 @@
           <t>Parc</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">L’endroit où le monument serait érigé n’a pas été choisi facilement. Certains voulaient élever le monument au coin de la 5e rue et de l’avenue de la Station. On proposa aussi un emplacement dans le parc St-Maurice. Mais c’est un endroit près de la rivière, sur le boulevard Saint-Maurice, qui a été choisi.
 Le 17 novembre 1947, le Conseil Municipal de Shawinigan décida de donner un nom à l’endroit où sera érigé, en 1948, le Monument aux Braves. C’est celui d’un pionnier de la ville qui fut choisi, Hubert Biermans.
@@ -633,7 +653,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Parc_des_V%C3%A9t%C3%A9rans</t>
+          <t>Parc_des_Vétérans</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -651,7 +671,9 @@
           <t>Canons</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">La présence du 62e Régiment d’Artillerie de campagne dans notre ville nous rapproche de cette arme qu’est le canon. Nous nous souvenons tous des deux canons en face de l’ancien manège militaire, coin boulevard Royal et rue Trudel. Mais certains ignorent que Shawinigan a déjà possédé une autre grosse pièce d’artillerie.
 Un gros canon autrichien était situé à l’angle de la 5e rue et de la Station, une prise de la Première Guerre mondiale. Il était monté sur deux roues et de la catégorie d’artillerie lourde de campagne. En 1942 les autorités militaires l’envoyèrent à la fonte pour servir à la fabrication d’obus. Après la Seconde Guerre mondiale, un canon appartenant à la catégorie d’artillerie légère a été placé dans le parc Saint-Maurice. Il a été retiré vers les années 70.
@@ -665,7 +687,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Parc_des_V%C3%A9t%C3%A9rans</t>
+          <t>Parc_des_Vétérans</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -683,7 +705,9 @@
           <t>Corvette</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Afin de se prémunir contre la menace croissante des sous-marins allemands, l’Amirauté britannique décida de lancer la construction de petits navires rapides et manœuvrables. Le gouvernement canadien a donc fait construire 125 corvettes au Canada, et les équipages étaient majoritairement formés de Canadiens.
 Il été décidé de nommer les corvettes avec des noms de villes canadiennes. La ville marraine devait fournir aux membres de l’équipage de l’équipement et entretenir leurs vêtements. La ville de Shawinigan a donc accepté l’honneur de donner son nom à la corvette K-136. 
